--- a/biology/Médecine/Collège_national_des_généralistes_enseignants/Collège_national_des_généralistes_enseignants.xlsx
+++ b/biology/Médecine/Collège_national_des_généralistes_enseignants/Collège_national_des_généralistes_enseignants.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+          <t>Collège_national_des_généralistes_enseignants</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Collège national des généralistes enseignants est la principale société scientifique de médecine générale[1],[2] en France, créé en 1983. Il représente 35 collèges régionaux, liés aux facultés de médecine françaises. Il a œuvré à la mise en place de la filière universitaire de la médecine générale. Celle-ci est composée en 2022 de 45 professeurs des universités, 46 maîtres de conférences des universités, 90 professeurs associés, 144 maîtres de conférences associés, 247 chefs de clinique et assistants universitaires de médecine générale ainsi que de 11837 maîtres de stage des universités[3]. Cette filière permet un maillage du territoire français en accueillant l’ensemble des étudiants de deuxième cycle et ceux du DES de Médecine Générale[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Collège national des généralistes enseignants est la principale société scientifique de médecine générale, en France, créé en 1983. Il représente 35 collèges régionaux, liés aux facultés de médecine françaises. Il a œuvré à la mise en place de la filière universitaire de la médecine générale. Celle-ci est composée en 2022 de 45 professeurs des universités, 46 maîtres de conférences des universités, 90 professeurs associés, 144 maîtres de conférences associés, 247 chefs de clinique et assistants universitaires de médecine générale ainsi que de 11837 maîtres de stage des universités. Cette filière permet un maillage du territoire français en accueillant l’ensemble des étudiants de deuxième cycle et ceux du DES de Médecine Générale.
 Sur le plan international, le CNGE participe activement aux réseaux internationaux (Organisation mondiale de la santé, WONCA, EGPRN (pour la recherche), EURACT (pour l’enseignement), EQUIP (pour la qualité des soins).
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+          <t>Collège_national_des_généralistes_enseignants</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,24 +524,11 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’activité de CNGE Collège Académique se regroupe autour des pôles suivants :
-La pédagogie et l’enseignement
-Le CNGE a mis en place et actualise le contenu du programme du D.E.S de Médecine Générale, afin d’encadrer les 13 817 internes du cursus[3]. Il élabore ses procédures de validation, en concertation avec les tutelles et la conférence des doyens des UFR de Médecine. Avec l’ensemble de la communauté des enseignants universitaires de Médecine Générale, il participe à l’élaboration des outils de certification des compétences des étudiants à l’issue du D.E.S. Il collabore avec les autres disciplines à la formation des étudiants en médecine tout au long de leur cursus, notamment sur les 71 items de connaissance  de rang B relevant de la médecine générale introduits par la réforme du 2ème cycle des études de médecine.
-La recherche
-Pour définir et compléter un contenu d'enseignement cohérent et faire progresser la discipline, CNGE Collège Académique fait de la recherche en soins primaires sa priorité. CNGE Collège Académique initie et développe des travaux de recherche en Médecine Générale en faisant appel au réseau recherche qu’il a constitué et qui regroupe un millier de membres.
-Le CNGE appuie et fournit une aide méthodologique aux projets loco régionaux des équipes de généralistes enseignants qui le sollicitent. À son initiative, plusieurs études de portée nationale ou collaborations sur des projets internationaux sont actuellement en cours.
-La formation des généralistes enseignants
-Afin de former les cadres de la discipline, de permettre de promouvoir l’excellence pédagogique et l’excellence de l’exercice médical, CNGE Formation propose, en collaboration avec les collèges régionaux, une offre variée et ciblée autour de la pédagogie et du soin. Le CNGE contribue ainsi à former plus de 2000 médecins par an.
-Les productions en médecine générale
-Les productions du CNGE, élaborées par la communauté universitaire des généralistes, sont disponibles pour les étudiants, les enseignants de médecine générale et les médecins généralistes et disponibles sur le site d'Exercer.
-Exercer est la revue francophone indépendante de médecine générale. Elle met à la disposition de chaque étudiant, chaque MSU, chaque tuteur et de tous les médecins généralistes, la documentation la plus pertinente pour la médecine générale et les soins premiers. Depuis 2010, la revue est disponible en ligne offrant une meilleure visibilité de ses publications. Les archives fournissent un contenu scientifique autour des trois champs de la discipline médecine générale : soins, recherche et sciences de l’éducation.
-Les articles de soins répondent aux besoins des maîtres de stages universitaires et des internes de médecine générale ; des articles internationaux sont  résumés et commentés dans les rubriques phare et magazine.
-Le congrès du CNGE
-Il se tient chaque année  dans une ville universitaire, grâce à la vitalité des collèges régionaux organisateurs. Il réunit les acteurs importants de la médecine générale. Le programme permet de faire bénéficier des éléments les plus formateurs, les plus novateurs, les plus intéressants parmi les nombreuses propositions de communication soumises, dans un esprit de convivialité. Le 21e congrès du CNGE s’est tenu à Lille Grand Palais du 1er au 3 décembre et a rencontré un succès  inédit par la fréquentation record avec 3000 participants. Il comptait 11 plénières, 7 tables-rondes, 183 communications orales, 43 communications affichées et 16 ateliers.
-Représentation disciplinaire de la médecine générale
-Le CNGE est le collège des enseignants de la discipline et fédère les acteurs de la filière universitaire de médecine générale. À ce titre, il entretient des contacts permanents avec les autorités de tutelle, les Ministères (Ministère des Affaires sociales et de la Santé) et le Ministère de l'Enseignement supérieur et de la Recherche) ainsi que de leurs administrations.
 </t>
         </is>
       </c>
@@ -540,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+          <t>Collège_national_des_généralistes_enseignants</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,10 +554,237 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La pédagogie et l’enseignement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CNGE a mis en place et actualise le contenu du programme du D.E.S de Médecine Générale, afin d’encadrer les 13 817 internes du cursus. Il élabore ses procédures de validation, en concertation avec les tutelles et la conférence des doyens des UFR de Médecine. Avec l’ensemble de la communauté des enseignants universitaires de Médecine Générale, il participe à l’élaboration des outils de certification des compétences des étudiants à l’issue du D.E.S. Il collabore avec les autres disciplines à la formation des étudiants en médecine tout au long de leur cursus, notamment sur les 71 items de connaissance  de rang B relevant de la médecine générale introduits par la réforme du 2ème cycle des études de médecine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Collège_national_des_généralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La recherche</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour définir et compléter un contenu d'enseignement cohérent et faire progresser la discipline, CNGE Collège Académique fait de la recherche en soins primaires sa priorité. CNGE Collège Académique initie et développe des travaux de recherche en Médecine Générale en faisant appel au réseau recherche qu’il a constitué et qui regroupe un millier de membres.
+Le CNGE appuie et fournit une aide méthodologique aux projets loco régionaux des équipes de généralistes enseignants qui le sollicitent. À son initiative, plusieurs études de portée nationale ou collaborations sur des projets internationaux sont actuellement en cours.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Collège_national_des_généralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>La formation des généralistes enseignants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Afin de former les cadres de la discipline, de permettre de promouvoir l’excellence pédagogique et l’excellence de l’exercice médical, CNGE Formation propose, en collaboration avec les collèges régionaux, une offre variée et ciblée autour de la pédagogie et du soin. Le CNGE contribue ainsi à former plus de 2000 médecins par an.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Collège_national_des_généralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les productions en médecine générale</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les productions du CNGE, élaborées par la communauté universitaire des généralistes, sont disponibles pour les étudiants, les enseignants de médecine générale et les médecins généralistes et disponibles sur le site d'Exercer.
+Exercer est la revue francophone indépendante de médecine générale. Elle met à la disposition de chaque étudiant, chaque MSU, chaque tuteur et de tous les médecins généralistes, la documentation la plus pertinente pour la médecine générale et les soins premiers. Depuis 2010, la revue est disponible en ligne offrant une meilleure visibilité de ses publications. Les archives fournissent un contenu scientifique autour des trois champs de la discipline médecine générale : soins, recherche et sciences de l’éducation.
+Les articles de soins répondent aux besoins des maîtres de stages universitaires et des internes de médecine générale ; des articles internationaux sont  résumés et commentés dans les rubriques phare et magazine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Collège_national_des_généralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le congrès du CNGE</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se tient chaque année  dans une ville universitaire, grâce à la vitalité des collèges régionaux organisateurs. Il réunit les acteurs importants de la médecine générale. Le programme permet de faire bénéficier des éléments les plus formateurs, les plus novateurs, les plus intéressants parmi les nombreuses propositions de communication soumises, dans un esprit de convivialité. Le 21e congrès du CNGE s’est tenu à Lille Grand Palais du 1er au 3 décembre et a rencontré un succès  inédit par la fréquentation record avec 3000 participants. Il comptait 11 plénières, 7 tables-rondes, 183 communications orales, 43 communications affichées et 16 ateliers.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Collège_national_des_généralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Représentation disciplinaire de la médecine générale</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le CNGE est le collège des enseignants de la discipline et fédère les acteurs de la filière universitaire de médecine générale. À ce titre, il entretient des contacts permanents avec les autorités de tutelle, les Ministères (Ministère des Affaires sociales et de la Santé) et le Ministère de l'Enseignement supérieur et de la Recherche) ainsi que de leurs administrations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Collège_national_des_généralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Les publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>« exercer, la revue française de médecine générale » qui devient « exercer, la revue francophone de médecine générale » à partir de juin 2014
 Thérapeutique en Médecine Générale. Cet ouvrage est destiné aux médecins généralistes, aux maitres de stage des Universités et aux internes. Il a été rédigé afin d'aider à la prise en charge des problèmes de santé des patients au quotidien. Sa 4ème édition existe également sous le format d'une application numérique.
@@ -569,33 +795,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Collège_national_des_généralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Bureau</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour la période 2020-2022, le bureau de CNGE Collège Académique est composé de[5] :
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour la période 2020-2022, le bureau de CNGE Collège Académique est composé de :
 - Président : Pr Olivier Saint-Lary (UVSQ)
 - Vice-Président : Pr Patrick Imbert (Grenoble)
 - Secrétaire Générale : Pr Corinne Perdrix (Lyon)
@@ -609,37 +837,109 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Collège_national_des_généralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Depuis 30 ans[6], le Collège National des Généralistes Enseignants œuvre pour que la médecine générale soit authentifiée comme une discipline scientifique avec un statut universitaire et sa contribution a été essentielle dans la mise en place de la Filière Universitaire de Médecine Générale.
-Les présidents du CNGE
-Pr Jehan de Butler (1983-1989) - Pr François Bécret (1989-1992) - Pr Albert Hercek (1992-1996) - Pr Bernard Gay (1996-2002) - Pr Pierre-Louis Druais (2002-2010) - Pr Vincent Renard (2010-2020) - Pr Olivier Saint-Lary depuis 2020
-Le CNGE et les réformes de l’enseignement de la Médecine Générale [7]
-1991 
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 30 ans, le Collège National des Généralistes Enseignants œuvre pour que la médecine générale soit authentifiée comme une discipline scientifique avec un statut universitaire et sa contribution a été essentielle dans la mise en place de la Filière Universitaire de Médecine Générale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Collège_national_des_généralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Les présidents du CNGE</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pr Jehan de Butler (1983-1989) - Pr François Bécret (1989-1992) - Pr Albert Hercek (1992-1996) - Pr Bernard Gay (1996-2002) - Pr Pierre-Louis Druais (2002-2010) - Pr Vincent Renard (2010-2020) - Pr Olivier Saint-Lary depuis 2020
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Collège_national_des_généralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coll%C3%A8ge_national_des_g%C3%A9n%C3%A9ralistes_enseignants</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Le CNGE et les réformes de l’enseignement de la Médecine Générale [7]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1991 
 Nomination des premiers enseignants universitaires associés de Médecine Générale
 1997 
 Le stage ambulatoire de médecine générale de 6 mois est institué et rendu obligatoire en 3e cycle
@@ -657,7 +957,7 @@
 2007
 Création des prémices de la Filière Universitaire de Médecine Générale avec la nomination des 16 premiers Chefs de Clinique de Médecine Générale ; Associés dans un premier temps, ils deviendront Chefs de Clinique Universitaires (CCU) en 2008
 2008 
-Création de la Filière Universitaire de Médecine Générale avec la loi du 8 février 2008 [8] et le décret du 28 juillet 2008[9]
+Création de la Filière Universitaire de Médecine Générale avec la loi du 8 février 2008  et le décret du 28 juillet 2008
 Revalorisation des indemnités des Enseignants Cliniciens Ambulatoires Maîtres de Stage
 2009 
 Nomination des premiers Enseignants Universitaires Titulaires de Médecine Générale par la voie de l’intégration
